--- a/real-data.xlsx
+++ b/real-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinghongmiao/Code/mvt-code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9D2BF8-4DBB-5B40-9E7D-27E91438D265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51A23EB-176E-8A4F-8813-1FC9843DD158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{C86762DD-5072-CD4F-899E-81316F7F6DE5}"/>
   </bookViews>
@@ -414,7 +414,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1062,6 +1062,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1069,7 +1070,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1630,6 +1630,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1637,7 +1638,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2198,6 +2198,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2205,7 +2206,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2803,6 +2803,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2810,7 +2811,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3412,6 +3412,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3419,7 +3420,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4013,6 +4013,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4020,7 +4021,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4610,6 +4610,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4617,7 +4618,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -9120,14 +9120,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C23B33-DCA3-6D44-9BEC-7803C43531BA}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S61" sqref="S61"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -9159,7 +9159,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9231,7 +9231,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9267,7 +9267,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9303,7 +9303,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9339,7 +9339,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9375,7 +9375,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9411,7 +9411,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9447,7 +9447,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="1" customFormat="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -9483,7 +9483,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9555,7 +9555,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9591,7 +9591,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9627,7 +9627,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9663,7 +9663,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9699,7 +9699,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9735,7 +9735,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9771,7 +9771,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" s="1" customFormat="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -9807,7 +9807,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9843,7 +9843,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9915,7 +9915,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9951,7 +9951,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9987,7 +9987,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>24</v>
       </c>
@@ -10023,7 +10023,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>25</v>
       </c>
@@ -10059,7 +10059,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>26</v>
       </c>
@@ -10095,7 +10095,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" s="1" customFormat="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -10131,7 +10131,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>28</v>
       </c>
@@ -10167,7 +10167,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>29</v>
       </c>
@@ -10203,7 +10203,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>30</v>
       </c>
@@ -10239,7 +10239,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>31</v>
       </c>
@@ -10275,7 +10275,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>32</v>
       </c>
@@ -10311,7 +10311,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>33</v>
       </c>
@@ -10347,7 +10347,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>34</v>
       </c>
@@ -10383,7 +10383,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>35</v>
       </c>
@@ -10419,7 +10419,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>36</v>
       </c>
@@ -10455,7 +10455,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" s="1" customFormat="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -10491,7 +10491,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>38</v>
       </c>
@@ -10527,7 +10527,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>39</v>
       </c>
@@ -10563,7 +10563,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>40</v>
       </c>
@@ -10599,7 +10599,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>41</v>
       </c>
@@ -10635,7 +10635,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>42</v>
       </c>
@@ -10671,7 +10671,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>43</v>
       </c>
@@ -10707,7 +10707,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>44</v>
       </c>
@@ -10743,7 +10743,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>45</v>
       </c>
@@ -10794,12 +10794,12 @@
       <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -10822,7 +10822,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10845,7 +10845,7 @@
         <v>91744</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10868,7 +10868,7 @@
         <v>91744</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10891,7 +10891,7 @@
         <v>90059</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10911,7 +10911,7 @@
         <v>90021</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="1" customFormat="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -10932,7 +10932,7 @@
       </c>
       <c r="I6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10952,7 +10952,7 @@
         <v>90021</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10975,7 +10975,7 @@
         <v>93534</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -10998,7 +10998,7 @@
         <v>91711</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
@@ -11021,7 +11021,7 @@
         <v>91359</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
@@ -11044,7 +11044,7 @@
         <v>90731</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11067,7 +11067,7 @@
         <v>91733</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="14" customFormat="1">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -11091,7 +11091,7 @@
       </c>
       <c r="I13"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
@@ -11111,7 +11111,7 @@
         <v>90006</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
@@ -11134,7 +11134,7 @@
         <v>91340</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
@@ -11157,7 +11157,7 @@
         <v>93550</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>16</v>
       </c>
@@ -11190,7 +11190,7 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="5.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
@@ -11199,7 +11199,7 @@
     <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -11216,7 +11216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -11233,7 +11233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -11250,7 +11250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -11267,7 +11267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -11284,7 +11284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -11301,7 +11301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -11318,7 +11318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -11335,7 +11335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -11352,7 +11352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -11369,7 +11369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -11386,7 +11386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -11403,7 +11403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -11420,7 +11420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -11437,7 +11437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -11454,7 +11454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -11471,7 +11471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -11488,7 +11488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -11505,7 +11505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -11522,7 +11522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -11539,7 +11539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -11556,7 +11556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -11573,7 +11573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -11590,7 +11590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -11620,7 +11620,7 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="6.33203125" style="7" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="7" customWidth="1"/>
@@ -11629,7 +11629,7 @@
     <col min="5" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -11648,7 +11648,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -11667,7 +11667,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -11686,7 +11686,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -11705,7 +11705,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -11723,7 +11723,7 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -11742,7 +11742,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -11761,7 +11761,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -11780,7 +11780,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -11799,7 +11799,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -11818,7 +11818,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -11837,7 +11837,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -11856,7 +11856,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -11875,7 +11875,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -11894,7 +11894,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -11913,7 +11913,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -11932,7 +11932,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -11951,7 +11951,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -11970,7 +11970,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -11989,7 +11989,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -12007,7 +12007,7 @@
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -12026,7 +12026,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -12045,7 +12045,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -12063,7 +12063,7 @@
       </c>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -12080,7 +12080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -12097,7 +12097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -12114,7 +12114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -12131,7 +12131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -12148,7 +12148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -12165,7 +12165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -12182,7 +12182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -12199,7 +12199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -12216,7 +12216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -12233,7 +12233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -12250,7 +12250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -12267,7 +12267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" s="7">
         <v>35</v>
       </c>
